--- a/py_xl/blank_cell.xlsx
+++ b/py_xl/blank_cell.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonNizham\py_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB8DDD-1730-4F48-89E8-949E9F9FBD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>NO</t>
   </si>
@@ -34,371 +40,67 @@
   </si>
   <si>
     <t>TRF</t>
+  </si>
+  <si>
+    <t>KET</t>
+  </si>
+  <si>
+    <t>MANDIRI</t>
+  </si>
+  <si>
+    <t>SAMSUL</t>
+  </si>
+  <si>
+    <t>EREN YEAGER</t>
+  </si>
+  <si>
+    <t>ARMIN</t>
+  </si>
+  <si>
+    <t>MIKASA ACKERMAN</t>
+  </si>
+  <si>
+    <t>LEVI ACKERMAN</t>
+  </si>
+  <si>
+    <t>BNI</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>MINERVA</t>
+  </si>
+  <si>
+    <t>MINEVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -406,251 +108,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -658,70 +121,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -979,28 +399,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28571428571429" customWidth="1"/>
-    <col min="2" max="3" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.8571428571429" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1428571428571" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8571428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +440,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1039,8 +463,11 @@
       <c r="F2" s="1">
         <v>1079658.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1056,8 +483,11 @@
       <c r="F3" s="1">
         <v>448872</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1076,8 +506,11 @@
       <c r="F4" s="1">
         <v>884655</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1091,13 +524,16 @@
         <v>1013881</v>
       </c>
       <c r="E5" s="1">
-        <v>159892.8</v>
+        <v>159892.79999999999</v>
       </c>
       <c r="F5" s="1">
         <v>853988.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1117,27 +553,27 @@
         <v>376913.2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>993128</v>
+        <v>959847</v>
       </c>
       <c r="C7" s="1">
-        <v>206350</v>
+        <v>144113</v>
       </c>
       <c r="D7" s="1">
-        <v>1199478</v>
+        <v>1103960</v>
       </c>
       <c r="E7" s="1">
-        <v>198625.6</v>
+        <v>191969.4</v>
       </c>
       <c r="F7" s="1">
-        <v>1000852.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>911990.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1151,13 +587,16 @@
         <v>1219397</v>
       </c>
       <c r="E8" s="1">
-        <v>161000.2</v>
+        <v>161000.20000000001</v>
       </c>
       <c r="F8" s="1">
         <v>1058396.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1177,7 +616,7 @@
         <v>1009744.4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1197,7 +636,7 @@
         <v>395527</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1211,13 +650,13 @@
         <v>586753</v>
       </c>
       <c r="E11" s="1">
-        <v>19224.4</v>
+        <v>19224.400000000001</v>
       </c>
       <c r="F11" s="1">
         <v>567528.6</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1231,13 +670,16 @@
         <v>1119856</v>
       </c>
       <c r="E12" s="1">
-        <v>159618.8</v>
+        <v>159618.79999999999</v>
       </c>
       <c r="F12" s="1">
         <v>960237.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1251,10 +693,10 @@
         <v>674466</v>
       </c>
       <c r="E13" s="1">
-        <v>40044.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>40044.400000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1273,8 +715,11 @@
       <c r="F14" s="1">
         <v>94467.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1293,8 +738,11 @@
       <c r="F15" s="1">
         <v>976023.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1311,10 +759,13 @@
         <v>3243.2</v>
       </c>
       <c r="F16" s="1">
-        <v>132147.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>132147.79999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1333,8 +784,11 @@
       <c r="F17" s="1">
         <v>991741</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1353,8 +807,11 @@
       <c r="F18" s="1">
         <v>415495.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1370,8 +827,11 @@
       <c r="F19" s="1">
         <v>461260</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1385,13 +845,16 @@
         <v>438139</v>
       </c>
       <c r="E20" s="1">
-        <v>32728.4</v>
+        <v>32728.400000000001</v>
       </c>
       <c r="F20" s="1">
         <v>405410.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1410,8 +873,11 @@
       <c r="F21" s="1">
         <v>772562</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1430,8 +896,11 @@
       <c r="F22" s="1">
         <v>911990.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1451,7 +920,7 @@
         <v>403645</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1465,13 +934,13 @@
         <v>895570</v>
       </c>
       <c r="E24" s="1">
-        <v>135663.8</v>
+        <v>135663.79999999999</v>
       </c>
       <c r="F24" s="1">
         <v>759906.2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1488,10 +957,10 @@
         <v>14804.2</v>
       </c>
       <c r="F25" s="1">
-        <v>165769.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>165769.79999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1511,7 +980,7 @@
         <v>372372.2</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1525,13 +994,13 @@
         <v>628925</v>
       </c>
       <c r="E27" s="1">
-        <v>98436.8</v>
+        <v>98436.800000000003</v>
       </c>
       <c r="F27" s="1">
-        <v>530488.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>530488.19999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1548,7 +1017,7 @@
         <v>-122290</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1565,10 +1034,10 @@
         <v>194413.6</v>
       </c>
       <c r="F29" s="1">
-        <v>1087628.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1087628.3999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1585,10 +1054,10 @@
         <v>193484.4</v>
       </c>
       <c r="F30" s="1">
-        <v>1140911.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1140911.6000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1608,7 +1077,7 @@
         <v>1165446</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1628,7 +1097,7 @@
         <v>406637.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1642,13 +1111,13 @@
         <v>694448</v>
       </c>
       <c r="E33" s="1">
-        <v>65244.8</v>
+        <v>65244.800000000003</v>
       </c>
       <c r="F33" s="1">
-        <v>629203.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>629203.19999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1668,7 +1137,7 @@
         <v>722431.6</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1682,13 +1151,13 @@
         <v>759147</v>
       </c>
       <c r="E35" s="1">
-        <v>119046.4</v>
+        <v>119046.39999999999</v>
       </c>
       <c r="F35" s="1">
         <v>640100.6</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1702,13 +1171,13 @@
         <v>518954</v>
       </c>
       <c r="E36" s="1">
-        <v>70151.6</v>
+        <v>70151.600000000006</v>
       </c>
       <c r="F36" s="1">
         <v>448802.4</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1725,7 +1194,7 @@
         <v>907236</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1745,7 +1214,7 @@
         <v>750616</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1765,7 +1234,7 @@
         <v>1048222.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1779,13 +1248,13 @@
         <v>780936</v>
       </c>
       <c r="E40" s="1">
-        <v>78994.6</v>
+        <v>78994.600000000006</v>
       </c>
       <c r="F40" s="1">
         <v>701941.4</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1799,13 +1268,13 @@
         <v>893477</v>
       </c>
       <c r="E41" s="1">
-        <v>138534.2</v>
+        <v>138534.20000000001</v>
       </c>
       <c r="F41" s="1">
         <v>754942.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1825,27 +1294,27 @@
         <v>799302.6</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>988981</v>
+        <v>959847</v>
       </c>
       <c r="C43" s="1">
-        <v>442444</v>
+        <v>144113</v>
       </c>
       <c r="D43" s="1">
-        <v>1431425</v>
+        <v>1103960</v>
       </c>
       <c r="E43" s="1">
-        <v>197796.2</v>
+        <v>191969.4</v>
       </c>
       <c r="F43" s="1">
-        <v>1233628.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>911990.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1865,7 +1334,7 @@
         <v>907038.2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1879,13 +1348,13 @@
         <v>185263</v>
       </c>
       <c r="E45" s="1">
-        <v>2202.2</v>
+        <v>2202.1999999999998</v>
       </c>
       <c r="F45" s="1">
         <v>183060.8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1902,46 +1371,40 @@
         <v>66829.2</v>
       </c>
       <c r="F46" s="1">
-        <v>482924.8</v>
+        <v>482924.79999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>